--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>97.33403839527124</v>
+        <v>98.86316229632001</v>
       </c>
       <c r="R2">
-        <v>97.33403839527124</v>
+        <v>395.4526491852801</v>
       </c>
       <c r="S2">
-        <v>0.02602739173009351</v>
+        <v>0.02131902778965232</v>
       </c>
       <c r="T2">
-        <v>0.02602739173009351</v>
+        <v>0.01241790669435541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>39.16074319137111</v>
+        <v>43.26361951488001</v>
       </c>
       <c r="R3">
-        <v>39.16074319137111</v>
+        <v>259.5817170892801</v>
       </c>
       <c r="S3">
-        <v>0.01047169130437442</v>
+        <v>0.009329443700720095</v>
       </c>
       <c r="T3">
-        <v>0.01047169130437442</v>
+        <v>0.008151321148097719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H4">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I4">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J4">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>61.44246674569656</v>
+        <v>98.48041743530666</v>
       </c>
       <c r="R4">
-        <v>61.44246674569656</v>
+        <v>590.88250461184</v>
       </c>
       <c r="S4">
-        <v>0.01642988595992726</v>
+        <v>0.02123649200849014</v>
       </c>
       <c r="T4">
-        <v>0.01642988595992726</v>
+        <v>0.01855474688237335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H5">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I5">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J5">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>176.8995438271683</v>
+        <v>180.929684399616</v>
       </c>
       <c r="R5">
-        <v>176.8995438271683</v>
+        <v>1085.578106397696</v>
       </c>
       <c r="S5">
-        <v>0.04730342848168767</v>
+        <v>0.03901599827575024</v>
       </c>
       <c r="T5">
-        <v>0.04730342848168767</v>
+        <v>0.03408905633191395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H6">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I6">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J6">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>42.56090967681686</v>
+        <v>45.37056284842667</v>
       </c>
       <c r="R6">
-        <v>42.56090967681686</v>
+        <v>272.22337709056</v>
       </c>
       <c r="S6">
-        <v>0.01138090524970407</v>
+        <v>0.009783788700776563</v>
       </c>
       <c r="T6">
-        <v>0.01138090524970407</v>
+        <v>0.008548291441964962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H7">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I7">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J7">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>11.12310494103118</v>
+        <v>12.432293222144</v>
       </c>
       <c r="R7">
-        <v>11.12310494103118</v>
+        <v>49.72917288857601</v>
       </c>
       <c r="S7">
-        <v>0.002974349100563181</v>
+        <v>0.002680921776481146</v>
       </c>
       <c r="T7">
-        <v>0.002974349100563181</v>
+        <v>0.001561583239333605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J8">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>251.5569159828619</v>
+        <v>266.8486572304533</v>
       </c>
       <c r="R8">
-        <v>251.5569159828619</v>
+        <v>1601.09194338272</v>
       </c>
       <c r="S8">
-        <v>0.06726701678719472</v>
+        <v>0.057543718074444</v>
       </c>
       <c r="T8">
-        <v>0.06726701678719472</v>
+        <v>0.05027709487589106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J9">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>101.2097714965125</v>
+        <v>116.77594066708</v>
       </c>
       <c r="R9">
-        <v>101.2097714965125</v>
+        <v>1050.98346600372</v>
       </c>
       <c r="S9">
-        <v>0.02706377350701767</v>
+        <v>0.02518177111088563</v>
       </c>
       <c r="T9">
-        <v>0.02706377350701767</v>
+        <v>0.03300272395451748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J10">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>158.7962207235191</v>
+        <v>265.8155631046844</v>
       </c>
       <c r="R10">
-        <v>158.7962207235191</v>
+        <v>2392.34006794216</v>
       </c>
       <c r="S10">
-        <v>0.04246254969145737</v>
+        <v>0.05732093982352603</v>
       </c>
       <c r="T10">
-        <v>0.04246254969145737</v>
+        <v>0.07512367360815099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J11">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>457.1915890638678</v>
+        <v>488.3602973416559</v>
       </c>
       <c r="R11">
-        <v>457.1915890638678</v>
+        <v>4395.242676074903</v>
       </c>
       <c r="S11">
-        <v>0.1222542985008555</v>
+        <v>0.1053108813086912</v>
       </c>
       <c r="T11">
-        <v>0.1222542985008555</v>
+        <v>0.1380183280172567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J12">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>109.9974002542295</v>
+        <v>122.4629426439378</v>
       </c>
       <c r="R12">
-        <v>109.9974002542295</v>
+        <v>1102.16648379544</v>
       </c>
       <c r="S12">
-        <v>0.02941360980094511</v>
+        <v>0.02640812631102625</v>
       </c>
       <c r="T12">
-        <v>0.02941360980094511</v>
+        <v>0.03460996047343463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J13">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>28.74733260071408</v>
+        <v>33.55689496033733</v>
       </c>
       <c r="R13">
-        <v>28.74733260071408</v>
+        <v>201.341369762024</v>
       </c>
       <c r="S13">
-        <v>0.007687116440762243</v>
+        <v>0.007236268389328113</v>
       </c>
       <c r="T13">
-        <v>0.007687116440762243</v>
+        <v>0.006322472105243369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H14">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I14">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J14">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>15.64527378217561</v>
+        <v>33.06160066784667</v>
       </c>
       <c r="R14">
-        <v>15.64527378217561</v>
+        <v>198.36960400708</v>
       </c>
       <c r="S14">
-        <v>0.00418358958661094</v>
+        <v>0.007129462248998354</v>
       </c>
       <c r="T14">
-        <v>0.00418358958661094</v>
+        <v>0.006229153448917755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H15">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I15">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J15">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>6.294617575142511</v>
+        <v>14.468124209495</v>
       </c>
       <c r="R15">
-        <v>6.294617575142511</v>
+        <v>130.213117885455</v>
       </c>
       <c r="S15">
-        <v>0.0016831981917163</v>
+        <v>0.003119931983986787</v>
       </c>
       <c r="T15">
-        <v>0.0016831981917163</v>
+        <v>0.004088920257871597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H16">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I16">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J16">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>9.876136138366009</v>
+        <v>32.93360397566556</v>
       </c>
       <c r="R16">
-        <v>9.876136138366009</v>
+        <v>296.40243578099</v>
       </c>
       <c r="S16">
-        <v>0.002640906185450878</v>
+        <v>0.007101860815115288</v>
       </c>
       <c r="T16">
-        <v>0.002640906185450878</v>
+        <v>0.009307556287942579</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H17">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I17">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J17">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>28.43447000399483</v>
+        <v>60.506105971509</v>
       </c>
       <c r="R17">
-        <v>28.43447000399483</v>
+        <v>544.554953743581</v>
       </c>
       <c r="S17">
-        <v>0.007603456114973258</v>
+        <v>0.01304764408389012</v>
       </c>
       <c r="T17">
-        <v>0.007603456114973258</v>
+        <v>0.01709998053994204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H18">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I18">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J18">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>6.841153365158196</v>
+        <v>15.17272355171222</v>
       </c>
       <c r="R18">
-        <v>6.841153365158196</v>
+        <v>136.55451196541</v>
       </c>
       <c r="S18">
-        <v>0.001829343377262669</v>
+        <v>0.003271873036734792</v>
       </c>
       <c r="T18">
-        <v>0.001829343377262669</v>
+        <v>0.004288051152959175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H19">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I19">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J19">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N19">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O19">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P19">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q19">
-        <v>1.787905084176161</v>
+        <v>4.157580076835167</v>
       </c>
       <c r="R19">
-        <v>1.787905084176161</v>
+        <v>24.945480461011</v>
       </c>
       <c r="S19">
-        <v>0.0004780907765596163</v>
+        <v>0.0008965479470511844</v>
       </c>
       <c r="T19">
-        <v>0.0004780907765596163</v>
+        <v>0.0007833318336566883</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H20">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I20">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J20">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N20">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O20">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P20">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q20">
-        <v>80.29573978640055</v>
+        <v>82.68118080044002</v>
       </c>
       <c r="R20">
-        <v>80.29573978640055</v>
+        <v>496.0870848026401</v>
       </c>
       <c r="S20">
-        <v>0.02147130344259747</v>
+        <v>0.01782951657850683</v>
       </c>
       <c r="T20">
-        <v>0.02147130344259747</v>
+        <v>0.01557800445652766</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H21">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I21">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J21">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N21">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P21">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q21">
-        <v>32.30566507850924</v>
+        <v>36.18220441371001</v>
       </c>
       <c r="R21">
-        <v>32.30566507850924</v>
+        <v>325.6398397233901</v>
       </c>
       <c r="S21">
-        <v>0.008638624410968772</v>
+        <v>0.007802394779511085</v>
       </c>
       <c r="T21">
-        <v>0.008638624410968772</v>
+        <v>0.01022566204571131</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H22">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I22">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J22">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N22">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O22">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P22">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q22">
-        <v>50.68697860466771</v>
+        <v>82.36108384704669</v>
       </c>
       <c r="R22">
-        <v>50.68697860466771</v>
+        <v>741.2497546234201</v>
       </c>
       <c r="S22">
-        <v>0.01355383861091957</v>
+        <v>0.0177604903033375</v>
       </c>
       <c r="T22">
-        <v>0.01355383861091957</v>
+        <v>0.02327654223354259</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H23">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I23">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J23">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N23">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O23">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P23">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q23">
-        <v>145.9333237751425</v>
+        <v>151.315005514122</v>
       </c>
       <c r="R23">
-        <v>145.9333237751425</v>
+        <v>1361.835049627098</v>
       </c>
       <c r="S23">
-        <v>0.03902297538447486</v>
+        <v>0.03262983635783456</v>
       </c>
       <c r="T23">
-        <v>0.03902297538447486</v>
+        <v>0.04276400882435068</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H24">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I24">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J24">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N24">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O24">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P24">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q24">
-        <v>35.11063328744216</v>
+        <v>37.94428200308668</v>
       </c>
       <c r="R24">
-        <v>35.11063328744216</v>
+        <v>341.4985380277801</v>
       </c>
       <c r="S24">
-        <v>0.009388680686943681</v>
+        <v>0.008182372318393059</v>
       </c>
       <c r="T24">
-        <v>0.009388680686943681</v>
+        <v>0.01072365298405391</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H25">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I25">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J25">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N25">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O25">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P25">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q25">
-        <v>9.176008256585982</v>
+        <v>10.397368036673</v>
       </c>
       <c r="R25">
-        <v>9.176008256585982</v>
+        <v>62.38420822003802</v>
       </c>
       <c r="S25">
-        <v>0.002453690048725427</v>
+        <v>0.002242106897700615</v>
       </c>
       <c r="T25">
-        <v>0.002453690048725427</v>
+        <v>0.001958973542025035</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H26">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I26">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J26">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N26">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O26">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P26">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q26">
-        <v>64.84767647863661</v>
+        <v>77.53948396066669</v>
       </c>
       <c r="R26">
-        <v>64.84767647863661</v>
+        <v>465.2369037640001</v>
       </c>
       <c r="S26">
-        <v>0.01734044848361953</v>
+        <v>0.01672075194598833</v>
       </c>
       <c r="T26">
-        <v>0.01734044848361953</v>
+        <v>0.01460925466959094</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H27">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I27">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J27">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N27">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P27">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q27">
-        <v>26.09039188145286</v>
+        <v>33.9321406835</v>
       </c>
       <c r="R27">
-        <v>26.09039188145286</v>
+        <v>305.3892661515001</v>
       </c>
       <c r="S27">
-        <v>0.006976643125938723</v>
+        <v>0.007317187043093965</v>
       </c>
       <c r="T27">
-        <v>0.006976643125938723</v>
+        <v>0.009589758521886161</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H28">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I28">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J28">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N28">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O28">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P28">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q28">
-        <v>40.93533229756439</v>
+        <v>77.23929288522223</v>
       </c>
       <c r="R28">
-        <v>40.93533229756439</v>
+        <v>695.153635967</v>
       </c>
       <c r="S28">
-        <v>0.01094622135150224</v>
+        <v>0.01665601820967082</v>
       </c>
       <c r="T28">
-        <v>0.01094622135150224</v>
+        <v>0.02182904326842839</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H29">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I29">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J29">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N29">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O29">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P29">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q29">
-        <v>117.8572735340233</v>
+        <v>141.9051751497</v>
       </c>
       <c r="R29">
-        <v>117.8572735340233</v>
+        <v>1277.1465763473</v>
       </c>
       <c r="S29">
-        <v>0.03151536170783021</v>
+        <v>0.03060068383655723</v>
       </c>
       <c r="T29">
-        <v>0.03151536170783021</v>
+        <v>0.04010464224419859</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H30">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I30">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J30">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N30">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O30">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P30">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q30">
-        <v>28.35571344682624</v>
+        <v>35.5846399058889</v>
       </c>
       <c r="R30">
-        <v>28.35571344682624</v>
+        <v>320.261759153</v>
       </c>
       <c r="S30">
-        <v>0.007582396393230119</v>
+        <v>0.00767353490842822</v>
       </c>
       <c r="T30">
-        <v>0.007582396393230119</v>
+        <v>0.01005678088419824</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H31">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I31">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J31">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N31">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O31">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P31">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q31">
-        <v>7.410639921511338</v>
+        <v>9.750786627716669</v>
       </c>
       <c r="R31">
-        <v>7.410639921511338</v>
+        <v>58.50471976630001</v>
       </c>
       <c r="S31">
-        <v>0.001981625661359753</v>
+        <v>0.002102676935056929</v>
       </c>
       <c r="T31">
-        <v>0.001981625661359753</v>
+        <v>0.001837150801073371</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H32">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I32">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J32">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N32">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O32">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P32">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q32">
-        <v>339.749040462747</v>
+        <v>397.44687017511</v>
       </c>
       <c r="R32">
-        <v>339.749040462747</v>
+        <v>1589.78748070044</v>
       </c>
       <c r="S32">
-        <v>0.0908498353899278</v>
+        <v>0.08570614851239595</v>
       </c>
       <c r="T32">
-        <v>0.0908498353899278</v>
+        <v>0.049922114922899</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H33">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I33">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J33">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N33">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P33">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q33">
-        <v>136.6924165731808</v>
+        <v>173.9271713471775</v>
       </c>
       <c r="R33">
-        <v>136.6924165731808</v>
+        <v>1043.563028083065</v>
       </c>
       <c r="S33">
-        <v>0.03655193117782059</v>
+        <v>0.03750596393237281</v>
       </c>
       <c r="T33">
-        <v>0.03655193117782059</v>
+        <v>0.03276970919050012</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H34">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I34">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J34">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N34">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O34">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P34">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q34">
-        <v>214.4678209666148</v>
+        <v>395.908170182595</v>
       </c>
       <c r="R34">
-        <v>214.4678209666148</v>
+        <v>2375.44902109557</v>
       </c>
       <c r="S34">
-        <v>0.05734928994859044</v>
+        <v>0.08537434051497378</v>
       </c>
       <c r="T34">
-        <v>0.05734928994859044</v>
+        <v>0.07459326511514158</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H35">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I35">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J35">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N35">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O35">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P35">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q35">
-        <v>617.4761806297147</v>
+        <v>727.3683656897805</v>
       </c>
       <c r="R35">
-        <v>617.4761806297147</v>
+        <v>4364.210194138683</v>
       </c>
       <c r="S35">
-        <v>0.1651148426821295</v>
+        <v>0.1568510053823317</v>
       </c>
       <c r="T35">
-        <v>0.1651148426821295</v>
+        <v>0.1370438536624327</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H36">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I36">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J36">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N36">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O36">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P36">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q36">
-        <v>148.5608576641846</v>
+        <v>182.397444946605</v>
       </c>
       <c r="R36">
-        <v>148.5608576641846</v>
+        <v>1094.38466967963</v>
       </c>
       <c r="S36">
-        <v>0.03972558523136598</v>
+        <v>0.03933250876522887</v>
       </c>
       <c r="T36">
-        <v>0.03972558523136598</v>
+        <v>0.03436559786313974</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H37">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I37">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J37">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N37">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O37">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P37">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q37">
-        <v>38.82572112476308</v>
+        <v>49.97995123229325</v>
       </c>
       <c r="R37">
-        <v>38.82572112476308</v>
+        <v>199.919804929173</v>
       </c>
       <c r="S37">
-        <v>0.010382105474899</v>
+        <v>0.01077776539306987</v>
       </c>
       <c r="T37">
-        <v>0.010382105474899</v>
+        <v>0.006277832476476969</v>
       </c>
     </row>
   </sheetData>
